--- a/src/dist.xlsx
+++ b/src/dist.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stabr\Documents\GitHub\VRP-Py\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zohre\Documents\GIT\Python\MIP_VRP\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10B19BA6-B063-43E6-8CD1-EEB6C4C7BFAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D803710A-93E1-4D26-B8D3-1C3D9AE143FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{B6E50708-C599-4A8B-B138-B41146AF19E7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{B6E50708-C599-4A8B-B138-B41146AF19E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -377,15 +379,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26667D8B-40C1-4C99-ABFD-063C044FDB0D}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>100</v>
       </c>
@@ -401,8 +403,23 @@
       <c r="E1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -418,8 +435,23 @@
       <c r="E2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -435,39 +467,374 @@
       <c r="E3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>100</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2B493F-FB35-4078-9565-E2ABF34F1D40}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EDF47C-421F-43CA-A374-20241D1345E2}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
